--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H2">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N2">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O2">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P2">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q2">
-        <v>49.416443951028</v>
+        <v>1.780834958135333</v>
       </c>
       <c r="R2">
-        <v>444.747995559252</v>
+        <v>16.027514623218</v>
       </c>
       <c r="S2">
-        <v>0.06990216063374373</v>
+        <v>0.008914246917176251</v>
       </c>
       <c r="T2">
-        <v>0.06990216063374373</v>
+        <v>0.008914246917176252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H3">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.074512</v>
       </c>
       <c r="O3">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P3">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q3">
-        <v>22.679750313024</v>
+        <v>7.471189846367999</v>
       </c>
       <c r="R3">
-        <v>204.117752817216</v>
+        <v>67.24070861731199</v>
       </c>
       <c r="S3">
-        <v>0.03208170039684175</v>
+        <v>0.03739820512360091</v>
       </c>
       <c r="T3">
-        <v>0.03208170039684176</v>
+        <v>0.03739820512360092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H4">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J4">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N4">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O4">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P4">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q4">
-        <v>9.325915198257777</v>
+        <v>3.228867741925999</v>
       </c>
       <c r="R4">
-        <v>83.93323678432</v>
+        <v>29.05980967733399</v>
       </c>
       <c r="S4">
-        <v>0.01319199784774731</v>
+        <v>0.01616260068511433</v>
       </c>
       <c r="T4">
-        <v>0.01319199784774731</v>
+        <v>0.01616260068511433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N5">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O5">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P5">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q5">
-        <v>69.12513107138101</v>
+        <v>7.561999546569224</v>
       </c>
       <c r="R5">
-        <v>622.1261796424291</v>
+        <v>68.057995919123</v>
       </c>
       <c r="S5">
-        <v>0.09778113578485743</v>
+        <v>0.03785276723019617</v>
       </c>
       <c r="T5">
-        <v>0.09778113578485743</v>
+        <v>0.03785276723019617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J6">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.074512</v>
       </c>
       <c r="O6">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P6">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q6">
         <v>31.725081525648</v>
@@ -818,10 +818,10 @@
         <v>285.525733730832</v>
       </c>
       <c r="S6">
-        <v>0.04487679743047009</v>
+        <v>0.1588048397720646</v>
       </c>
       <c r="T6">
-        <v>0.04487679743047009</v>
+        <v>0.1588048397720646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J7">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N7">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O7">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P7">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q7">
-        <v>13.04535613851556</v>
+        <v>13.71081373309433</v>
       </c>
       <c r="R7">
-        <v>117.40820524664</v>
+        <v>123.397323597849</v>
       </c>
       <c r="S7">
-        <v>0.01845334280270362</v>
+        <v>0.0686316149028145</v>
       </c>
       <c r="T7">
-        <v>0.01845334280270362</v>
+        <v>0.0686316149028145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H8">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J8">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.864463000000001</v>
+        <v>0.6415476666666667</v>
       </c>
       <c r="N8">
-        <v>17.593389</v>
+        <v>1.924643</v>
       </c>
       <c r="O8">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="P8">
-        <v>0.6069167733108516</v>
+        <v>0.1426849042655057</v>
       </c>
       <c r="Q8">
-        <v>310.510523501376</v>
+        <v>19.16190267332912</v>
       </c>
       <c r="R8">
-        <v>2794.594711512384</v>
+        <v>172.457124059962</v>
       </c>
       <c r="S8">
-        <v>0.4392334768922505</v>
+        <v>0.09591789011813331</v>
       </c>
       <c r="T8">
-        <v>0.4392334768922505</v>
+        <v>0.09591789011813331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H9">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J9">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.074512</v>
       </c>
       <c r="O9">
-        <v>0.2785453541156709</v>
+        <v>0.5986102210699216</v>
       </c>
       <c r="P9">
-        <v>0.278545354115671</v>
+        <v>0.5986102210699217</v>
       </c>
       <c r="Q9">
-        <v>142.509265732608</v>
+        <v>80.39049999331201</v>
       </c>
       <c r="R9">
-        <v>1282.583391593472</v>
+        <v>723.514499939808</v>
       </c>
       <c r="S9">
-        <v>0.2015868562883592</v>
+        <v>0.4024071761742561</v>
       </c>
       <c r="T9">
-        <v>0.2015868562883592</v>
+        <v>0.4024071761742562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.94781866666667</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H10">
-        <v>158.843456</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J10">
-        <v>0.7237128651036362</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.106746666666667</v>
+        <v>1.163203</v>
       </c>
       <c r="N10">
-        <v>3.32024</v>
+        <v>3.489609</v>
       </c>
       <c r="O10">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="P10">
-        <v>0.1145378725734776</v>
+        <v>0.2587048746645726</v>
       </c>
       <c r="Q10">
-        <v>58.59982181660445</v>
+        <v>34.74283180100067</v>
       </c>
       <c r="R10">
-        <v>527.3983963494401</v>
+        <v>312.685486209006</v>
       </c>
       <c r="S10">
-        <v>0.08289253192302663</v>
+        <v>0.1739106590766439</v>
       </c>
       <c r="T10">
-        <v>0.08289253192302663</v>
+        <v>0.1739106590766439</v>
       </c>
     </row>
   </sheetData>
